--- a/biology/Microbiologie/Pseudomonas_fuscovaginae/Pseudomonas_fuscovaginae.xlsx
+++ b/biology/Microbiologie/Pseudomonas_fuscovaginae/Pseudomonas_fuscovaginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudomonas fuscovaginae est une espèce de protéobactéries de la famille des Pseudomonadaceae. C'est une bactérie phytopathogène qui attaque les cultures de céréales, provoquant la maladie dite « pourriture brune de la gaine » notamment chez le blé et le riz. Elle a récemment été reclassée comme synonyme junior de Pseudomonas asplenii et doit donc théoriquement être nommée ainsi.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, elle a été reclassé comme synonyme junior de Pseudomonas asplenii qui est désormais considéré comme le nom correct de cette espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, elle a été reclassé comme synonyme junior de Pseudomonas asplenii qui est désormais considéré comme le nom correct de cette espèce.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 mai 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 mai 2022) :
 non-classé Pseudomonas fuscovaginae CB98818
 non-classé Pseudomonas fuscovaginae DAR 77795
 non-classé Pseudomonas fuscovaginae DAR 77800
